--- a/wwwroot/Uploads/Book1 - Copy.xlsx
+++ b/wwwroot/Uploads/Book1 - Copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044D566C-2F39-416C-A5D9-E636768D0001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F71237B-88BB-427F-8091-A38363E9826C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{E3C14AF9-3291-460A-ACE3-FEA6D911BA62}"/>
+    <workbookView xWindow="636" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{E3C14AF9-3291-460A-ACE3-FEA6D911BA62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -393,7 +393,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,8 +427,8 @@
       <c r="C2" s="2">
         <v>45184.493750000001</v>
       </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="D2" s="2">
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -442,7 +442,7 @@
         <v>45185.493750000001</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -456,7 +456,7 @@
         <v>45186.493750000001</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
